--- a/Code/Results/Cases/Case_2_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.044785980820734</v>
+        <v>0.3604697925125322</v>
       </c>
       <c r="C2">
-        <v>0.1718638050202372</v>
+        <v>0.05263273439551597</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.006026895085014</v>
+        <v>0.6815605889087237</v>
       </c>
       <c r="F2">
-        <v>1.843496532943149</v>
+        <v>2.278349838371255</v>
       </c>
       <c r="G2">
-        <v>0.0008071690772483032</v>
+        <v>0.002436492128489158</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2003835194524513</v>
+        <v>0.5262371975377107</v>
       </c>
       <c r="J2">
-        <v>0.01896653904925749</v>
+        <v>0.04682457739595414</v>
       </c>
       <c r="K2">
-        <v>1.147511407722959</v>
+        <v>0.3771883825602629</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9888176037175924</v>
+        <v>2.400377726386964</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9102226195638821</v>
+        <v>0.3184191154466589</v>
       </c>
       <c r="C3">
-        <v>0.1509493458698756</v>
+        <v>0.04602754622919747</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.8789431477666483</v>
+        <v>0.6504940386193994</v>
       </c>
       <c r="F3">
-        <v>1.674053772676231</v>
+        <v>2.253495414606036</v>
       </c>
       <c r="G3">
-        <v>0.0008107547032217555</v>
+        <v>0.002438722578336879</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.213965738939546</v>
+        <v>0.534929670354833</v>
       </c>
       <c r="J3">
-        <v>0.01961904236799406</v>
+        <v>0.04748271991215347</v>
       </c>
       <c r="K3">
-        <v>1.000964905977952</v>
+        <v>0.3312207902634725</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.020005535157395</v>
+        <v>2.433317797950323</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8276408850666712</v>
+        <v>0.2925570874589312</v>
       </c>
       <c r="C4">
-        <v>0.138116177917226</v>
+        <v>0.04195400596935883</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8018336478722432</v>
+        <v>0.6317205993841952</v>
       </c>
       <c r="F4">
-        <v>1.573355181554248</v>
+        <v>2.239648688146147</v>
       </c>
       <c r="G4">
-        <v>0.0008130215943556174</v>
+        <v>0.002440163241269938</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2230109812039824</v>
+        <v>0.5406116965563328</v>
       </c>
       <c r="J4">
-        <v>0.02008796216352948</v>
+        <v>0.04791906164393822</v>
       </c>
       <c r="K4">
-        <v>0.911025342583514</v>
+        <v>0.3029298332953374</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.042594801980499</v>
+        <v>2.45518959098473</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7939877426834698</v>
+        <v>0.2820080124471929</v>
       </c>
       <c r="C5">
-        <v>0.1328865832932422</v>
+        <v>0.04028957426199042</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7706146548894708</v>
+        <v>0.6241460730570907</v>
       </c>
       <c r="F5">
-        <v>1.533093882638227</v>
+        <v>2.234361074789476</v>
       </c>
       <c r="G5">
-        <v>0.0008139621668027006</v>
+        <v>0.00244076826975357</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2268676055511349</v>
+        <v>0.543013774307525</v>
       </c>
       <c r="J5">
-        <v>0.02029541274106705</v>
+        <v>0.04810496889260207</v>
       </c>
       <c r="K5">
-        <v>0.8743723211572103</v>
+        <v>0.2913849524832699</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.05262601206725</v>
+        <v>2.464515987183873</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7883993411020924</v>
+        <v>0.2802557567340784</v>
       </c>
       <c r="C6">
-        <v>0.1320181564634453</v>
+        <v>0.04001293131065609</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7654422958975005</v>
+        <v>0.6228929064251645</v>
       </c>
       <c r="F6">
-        <v>1.526453439948</v>
+        <v>2.233504499113266</v>
       </c>
       <c r="G6">
-        <v>0.0008141193731453066</v>
+        <v>0.002440869819663127</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2275181061973157</v>
+        <v>0.5434178653449315</v>
       </c>
       <c r="J6">
-        <v>0.02033082520546969</v>
+        <v>0.04813632717105065</v>
       </c>
       <c r="K6">
-        <v>0.8682856600984792</v>
+        <v>0.28946698231303</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.054340465490284</v>
+        <v>2.466089584156435</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8271870422697987</v>
+        <v>0.2924148589156346</v>
       </c>
       <c r="C7">
-        <v>0.1380456523221909</v>
+        <v>0.0419315766987296</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8014118279092486</v>
+        <v>0.6316181397814802</v>
       </c>
       <c r="F7">
-        <v>1.572809152791038</v>
+        <v>2.23957594069185</v>
       </c>
       <c r="G7">
-        <v>0.0008130342108308986</v>
+        <v>0.00244017132808531</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2230623109664371</v>
+        <v>0.5406437412863276</v>
       </c>
       <c r="J7">
-        <v>0.02009069470021885</v>
+        <v>0.04792153609687588</v>
       </c>
       <c r="K7">
-        <v>0.9105310503271085</v>
+        <v>0.3027741992252686</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.042726792480892</v>
+        <v>2.455313696667346</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9983734123104568</v>
+        <v>0.3459799717795704</v>
       </c>
       <c r="C8">
-        <v>0.1646494500379845</v>
+        <v>0.0503590306428805</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9620000999841665</v>
+        <v>0.6707862297667475</v>
       </c>
       <c r="F8">
-        <v>1.784338627149836</v>
+        <v>2.269486231788449</v>
       </c>
       <c r="G8">
-        <v>0.0008083920796925928</v>
+        <v>0.002437246451052265</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2049159784449834</v>
+        <v>0.5291627370127081</v>
       </c>
       <c r="J8">
-        <v>0.0191768504930554</v>
+        <v>0.04704480615966311</v>
       </c>
       <c r="K8">
-        <v>1.096966158194306</v>
+        <v>0.3613529858972129</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9988331457529256</v>
+        <v>2.411393411253187</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.334925275520135</v>
+        <v>0.450658060906477</v>
       </c>
       <c r="C9">
-        <v>0.2169902595289557</v>
+        <v>0.06674039478714633</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.285578477958481</v>
+        <v>0.7499932344588132</v>
       </c>
       <c r="F9">
-        <v>2.228843691332116</v>
+        <v>2.339389429036629</v>
       </c>
       <c r="G9">
-        <v>0.000799788944772281</v>
+        <v>0.00243207293101233</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1752555359265067</v>
+        <v>0.5093886683923348</v>
       </c>
       <c r="J9">
-        <v>0.01796533158131552</v>
+        <v>0.04558189953649894</v>
       </c>
       <c r="K9">
-        <v>1.463492998636383</v>
+        <v>0.475672619920033</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9419155026745329</v>
+        <v>2.338354189223651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.583533059122914</v>
+        <v>0.5273194355882822</v>
       </c>
       <c r="C10">
-        <v>0.2557102050563032</v>
+        <v>0.0786851612534889</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.530673208142204</v>
+        <v>0.809663779002733</v>
       </c>
       <c r="F10">
-        <v>2.578351892591996</v>
+        <v>2.397655674448714</v>
       </c>
       <c r="G10">
-        <v>0.0007937461155306452</v>
+        <v>0.002428611202677897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1575544709835626</v>
+        <v>0.4965365244806375</v>
       </c>
       <c r="J10">
-        <v>0.01748684994125149</v>
+        <v>0.04466413419630832</v>
       </c>
       <c r="K10">
-        <v>1.734280572269228</v>
+        <v>0.5593017620992669</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9206345547021897</v>
+        <v>2.292704443571367</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697123136300746</v>
+        <v>0.5621366971575981</v>
       </c>
       <c r="C11">
-        <v>0.2734222047167663</v>
+        <v>0.08409905619558344</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.644285317040072</v>
+        <v>0.8371338855577193</v>
       </c>
       <c r="F11">
-        <v>2.743513038550333</v>
+        <v>2.425674110578001</v>
       </c>
       <c r="G11">
-        <v>0.0007910509785963179</v>
+        <v>0.002427109304294464</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1505045686977198</v>
+        <v>0.4910548003638624</v>
       </c>
       <c r="J11">
-        <v>0.01737253832090602</v>
+        <v>0.04428087916850032</v>
       </c>
       <c r="K11">
-        <v>1.858023009446271</v>
+        <v>0.5972637468115067</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.916076091296361</v>
+        <v>2.273684117483484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.740225949182587</v>
+        <v>0.5753124256746105</v>
       </c>
       <c r="C12">
-        <v>0.2801469664430272</v>
+        <v>0.08614624445311847</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.687658902579074</v>
+        <v>0.8475830860623006</v>
       </c>
       <c r="F12">
-        <v>2.807050486288801</v>
+        <v>2.436502261312256</v>
       </c>
       <c r="G12">
-        <v>0.0007900375619424638</v>
+        <v>0.002426550996170618</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1479895149640988</v>
+        <v>0.4890315784846688</v>
       </c>
       <c r="J12">
-        <v>0.01734539420611547</v>
+        <v>0.04414068838239338</v>
       </c>
       <c r="K12">
-        <v>1.904981828693792</v>
+        <v>0.6116267031724476</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9151468543127521</v>
+        <v>2.266733305508239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.730938751541913</v>
+        <v>0.5724751999288173</v>
       </c>
       <c r="C13">
-        <v>0.2786978260229205</v>
+        <v>0.08570547774550619</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.678301214592594</v>
+        <v>0.8453305787390235</v>
       </c>
       <c r="F13">
-        <v>2.793320509617985</v>
+        <v>2.434160511679806</v>
       </c>
       <c r="G13">
-        <v>0.0007902555097587268</v>
+        <v>0.002426670774730604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1485241263250465</v>
+        <v>0.4894649745260846</v>
       </c>
       <c r="J13">
-        <v>0.01735050062679022</v>
+        <v>0.04417066103582279</v>
       </c>
       <c r="K13">
-        <v>1.894863615596734</v>
+        <v>0.6085339476104537</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.915310524491062</v>
+        <v>2.26821907835577</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.700667348766217</v>
+        <v>0.5632208529178797</v>
       </c>
       <c r="C14">
-        <v>0.2739750806857302</v>
+        <v>0.08426753892752004</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.647846366671644</v>
+        <v>0.8379926080669406</v>
       </c>
       <c r="F14">
-        <v>2.748719719675648</v>
+        <v>2.426560572814509</v>
       </c>
       <c r="G14">
-        <v>0.0007909674638350542</v>
+        <v>0.002427063163147812</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1502944927693868</v>
+        <v>0.4908872939758275</v>
       </c>
       <c r="J14">
-        <v>0.01736997389514094</v>
+        <v>0.04426924650092445</v>
       </c>
       <c r="K14">
-        <v>1.861884211523432</v>
+        <v>0.5984456490122056</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.915983307327366</v>
+        <v>2.273107220064119</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682137330107139</v>
+        <v>0.5575511296173659</v>
       </c>
       <c r="C15">
-        <v>0.2710846660432082</v>
+        <v>0.08338637503226209</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.629239086515099</v>
+        <v>0.8335039937647508</v>
       </c>
       <c r="F15">
-        <v>2.721533323394681</v>
+        <v>2.421933822805215</v>
       </c>
       <c r="G15">
-        <v>0.0007914044730368408</v>
+        <v>0.00242730486904743</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1513993494160903</v>
+        <v>0.4917653581803521</v>
       </c>
       <c r="J15">
-        <v>0.01738404404473926</v>
+        <v>0.04433027669200662</v>
       </c>
       <c r="K15">
-        <v>1.841697044142364</v>
+        <v>0.5922646354088101</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9165010667211249</v>
+        <v>2.276134157147311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.576121124081197</v>
+        <v>0.5250428507364404</v>
       </c>
       <c r="C16">
-        <v>0.2545549504827846</v>
+        <v>0.07833094412508501</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.523294882354776</v>
+        <v>0.807875099341004</v>
       </c>
       <c r="F16">
-        <v>2.56769131162261</v>
+        <v>2.39585509983965</v>
       </c>
       <c r="G16">
-        <v>0.0007939232841926555</v>
+        <v>0.002428710816982548</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1580362446471408</v>
+        <v>0.4969021197313008</v>
       </c>
       <c r="J16">
-        <v>0.01749650727135688</v>
+        <v>0.04468987117681777</v>
       </c>
       <c r="K16">
-        <v>1.726206627113925</v>
+        <v>0.55681915818829</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9210405885076511</v>
+        <v>2.29398266020732</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.511222753887608</v>
+        <v>0.5050851307044582</v>
       </c>
       <c r="C17">
-        <v>0.2444420239567364</v>
+        <v>0.07522446014199602</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.458875639640212</v>
+        <v>0.7922360405728455</v>
       </c>
       <c r="F17">
-        <v>2.474967494172901</v>
+        <v>2.380244569510552</v>
       </c>
       <c r="G17">
-        <v>0.0007954818816805753</v>
+        <v>0.002429591946835595</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1623716912906801</v>
+        <v>0.5001468802336895</v>
       </c>
       <c r="J17">
-        <v>0.01759284903423541</v>
+        <v>0.04491925188890988</v>
       </c>
       <c r="K17">
-        <v>1.65551389888023</v>
+        <v>0.535053155634813</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9251788736997923</v>
+        <v>2.305379824856928</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.473940607116901</v>
+        <v>0.4936007129160487</v>
       </c>
       <c r="C18">
-        <v>0.2386343414146523</v>
+        <v>0.07343583029779666</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.422019632343648</v>
+        <v>0.7832715195239643</v>
       </c>
       <c r="F18">
-        <v>2.422208784464161</v>
+        <v>2.371408161751958</v>
       </c>
       <c r="G18">
-        <v>0.0007963834432933303</v>
+        <v>0.002430105610203414</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1649590057184263</v>
+        <v>0.5020475075570801</v>
       </c>
       <c r="J18">
-        <v>0.01765790743106699</v>
+        <v>0.04505440759087342</v>
       </c>
       <c r="K18">
-        <v>1.614904723903379</v>
+        <v>0.5225263145787835</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9280373615187614</v>
+        <v>2.312099469537714</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.46132485674076</v>
+        <v>0.4897114036525352</v>
       </c>
       <c r="C19">
-        <v>0.2366694050419511</v>
+        <v>0.07282991364552061</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.409573176171108</v>
+        <v>0.7802415501940487</v>
       </c>
       <c r="F19">
-        <v>2.404440985624788</v>
+        <v>2.368440736527262</v>
       </c>
       <c r="G19">
-        <v>0.000796689588466652</v>
+        <v>0.002430280707629962</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1658508100179983</v>
+        <v>0.502696918941508</v>
       </c>
       <c r="J19">
-        <v>0.01768155434396768</v>
+        <v>0.04510072188782388</v>
       </c>
       <c r="K19">
-        <v>1.601163410925778</v>
+        <v>0.5182836563122635</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.929085574239167</v>
+        <v>2.314402822505514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.518126448358714</v>
+        <v>0.5072102141095343</v>
       </c>
       <c r="C20">
-        <v>0.2455176058814601</v>
+        <v>0.07555534402470698</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.465712544444514</v>
+        <v>0.793897672472383</v>
       </c>
       <c r="F20">
-        <v>2.484777991880222</v>
+        <v>2.381891599174736</v>
       </c>
       <c r="G20">
-        <v>0.0007953154425309896</v>
+        <v>0.002429497439387039</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1619004068870691</v>
+        <v>0.4997979162688004</v>
       </c>
       <c r="J20">
-        <v>0.01758158611141525</v>
+        <v>0.04489450034356324</v>
       </c>
       <c r="K20">
-        <v>1.663033801834302</v>
+        <v>0.5373709768733193</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9246884263015431</v>
+        <v>2.304149567993136</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.709556241258269</v>
+        <v>0.5659393237394852</v>
       </c>
       <c r="C21">
-        <v>0.2753617579105168</v>
+        <v>0.08468997676521894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.656781768730525</v>
+        <v>0.8401466756648972</v>
       </c>
       <c r="F21">
-        <v>2.76179215555473</v>
+        <v>2.428786932745254</v>
       </c>
       <c r="G21">
-        <v>0.0007907581556534799</v>
+        <v>0.002426947626660077</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1497702104149035</v>
+        <v>0.4904680959889447</v>
       </c>
       <c r="J21">
-        <v>0.01736380524696024</v>
+        <v>0.04424015537593462</v>
       </c>
       <c r="K21">
-        <v>1.871568175462215</v>
+        <v>0.6014091698006894</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9157635605710084</v>
+        <v>2.271664615700942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.835192850917622</v>
+        <v>0.6042704998586146</v>
       </c>
       <c r="C22">
-        <v>0.2949711630474496</v>
+        <v>0.09064283432806519</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.78372839072118</v>
+        <v>0.8706462701416058</v>
       </c>
       <c r="F22">
-        <v>2.94869096660338</v>
+        <v>2.460707744587808</v>
       </c>
       <c r="G22">
-        <v>0.0007878212241698304</v>
+        <v>0.002425341938225488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1427489427376081</v>
+        <v>0.4846771045691938</v>
       </c>
       <c r="J22">
-        <v>0.01731624331401527</v>
+        <v>0.04384130209146697</v>
       </c>
       <c r="K22">
-        <v>2.008452165489956</v>
+        <v>0.6431890832253657</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9146074702362625</v>
+        <v>2.251901672723463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.768084002905255</v>
+        <v>0.5838173914882248</v>
       </c>
       <c r="C23">
-        <v>0.2844944440743689</v>
+        <v>0.08746727909073115</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.715768358390577</v>
+        <v>0.8543430524808713</v>
       </c>
       <c r="F23">
-        <v>2.84836571654111</v>
+        <v>2.443554407720143</v>
       </c>
       <c r="G23">
-        <v>0.0007893851172464979</v>
+        <v>0.002426193380604887</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.146409713672071</v>
+        <v>0.4877397690570593</v>
       </c>
       <c r="J23">
-        <v>0.01733250404819664</v>
+        <v>0.04405153726657396</v>
       </c>
       <c r="K23">
-        <v>1.935333208043602</v>
+        <v>0.6208972529232142</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9147753419592561</v>
+        <v>2.26231498607649</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.515005199695935</v>
+        <v>0.5062494964266477</v>
       </c>
       <c r="C24">
-        <v>0.245031315701624</v>
+        <v>0.07540575973352759</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.462621024234494</v>
+        <v>0.7931463658947706</v>
       </c>
       <c r="F24">
-        <v>2.480340962466684</v>
+        <v>2.381146546326079</v>
       </c>
       <c r="G24">
-        <v>0.0007953906725519444</v>
+        <v>0.00242954014412735</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1621131800394142</v>
+        <v>0.4999555733292578</v>
       </c>
       <c r="J24">
-        <v>0.01758664805369747</v>
+        <v>0.04490568029640229</v>
       </c>
       <c r="K24">
-        <v>1.659633952342432</v>
+        <v>0.5363231311914376</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9249086690635693</v>
+        <v>2.304705246151201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.243706478346837</v>
+        <v>0.4223812540293466</v>
       </c>
       <c r="C25">
-        <v>0.2027965984724744</v>
+        <v>0.06232455105326551</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.196910504406958</v>
+        <v>0.7283073284946084</v>
       </c>
       <c r="F25">
-        <v>2.104939534280987</v>
+        <v>2.319269248642087</v>
       </c>
       <c r="G25">
-        <v>0.0008020654627395418</v>
+        <v>0.002433412680350399</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1825977690593952</v>
+        <v>0.5144441696974056</v>
       </c>
       <c r="J25">
-        <v>0.01822523580743685</v>
+        <v>0.04595013239689116</v>
       </c>
       <c r="K25">
-        <v>1.364146369997684</v>
+        <v>0.4448078775396027</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9539184301533794</v>
+        <v>2.356708613029625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_104/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3604697925125322</v>
+        <v>1.044785980820677</v>
       </c>
       <c r="C2">
-        <v>0.05263273439551597</v>
+        <v>0.171863805020152</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6815605889087237</v>
+        <v>1.006026895085</v>
       </c>
       <c r="F2">
-        <v>2.278349838371255</v>
+        <v>1.843496532943121</v>
       </c>
       <c r="G2">
-        <v>0.002436492128489158</v>
+        <v>0.0008071690772749711</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5262371975377107</v>
+        <v>0.2003835194524619</v>
       </c>
       <c r="J2">
-        <v>0.04682457739595414</v>
+        <v>0.01896653904908163</v>
       </c>
       <c r="K2">
-        <v>0.3771883825602629</v>
+        <v>1.147511407722988</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.400377726386964</v>
+        <v>0.9888176037176351</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3184191154466589</v>
+        <v>0.9102226195639389</v>
       </c>
       <c r="C3">
-        <v>0.04602754622919747</v>
+        <v>0.150949345869833</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6504940386193994</v>
+        <v>0.8789431477666625</v>
       </c>
       <c r="F3">
-        <v>2.253495414606036</v>
+        <v>1.674053772676245</v>
       </c>
       <c r="G3">
-        <v>0.002438722578336879</v>
+        <v>0.000810754703221597</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.534929670354833</v>
+        <v>0.2139657389395477</v>
       </c>
       <c r="J3">
-        <v>0.04748271991215347</v>
+        <v>0.01961904236798873</v>
       </c>
       <c r="K3">
-        <v>0.3312207902634725</v>
+        <v>1.000964905978009</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.433317797950323</v>
+        <v>1.020005535157452</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2925570874589312</v>
+        <v>0.8276408850666428</v>
       </c>
       <c r="C4">
-        <v>0.04195400596935883</v>
+        <v>0.1381161779172118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6317205993841952</v>
+        <v>0.8018336478722716</v>
       </c>
       <c r="F4">
-        <v>2.239648688146147</v>
+        <v>1.573355181554248</v>
       </c>
       <c r="G4">
-        <v>0.002440163241269938</v>
+        <v>0.0008130215943548125</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5406116965563328</v>
+        <v>0.2230109812039949</v>
       </c>
       <c r="J4">
-        <v>0.04791906164393822</v>
+        <v>0.02008796216352948</v>
       </c>
       <c r="K4">
-        <v>0.3029298332953374</v>
+        <v>0.911025342583514</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.45518959098473</v>
+        <v>1.042594801980485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2820080124471929</v>
+        <v>0.7939877426831856</v>
       </c>
       <c r="C5">
-        <v>0.04028957426199042</v>
+        <v>0.1328865832935264</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6241460730570907</v>
+        <v>0.7706146548894708</v>
       </c>
       <c r="F5">
-        <v>2.234361074789476</v>
+        <v>1.533093882638227</v>
       </c>
       <c r="G5">
-        <v>0.00244076826975357</v>
+        <v>0.0008139621668026347</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.543013774307525</v>
+        <v>0.2268676055511332</v>
       </c>
       <c r="J5">
-        <v>0.04810496889260207</v>
+        <v>0.02029541274106883</v>
       </c>
       <c r="K5">
-        <v>0.2913849524832699</v>
+        <v>0.8743723211572672</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.464515987183873</v>
+        <v>1.052626012067307</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2802557567340784</v>
+        <v>0.7883993411019787</v>
       </c>
       <c r="C6">
-        <v>0.04001293131065609</v>
+        <v>0.1320181564632037</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6228929064251645</v>
+        <v>0.7654422958975005</v>
       </c>
       <c r="F6">
-        <v>2.233504499113266</v>
+        <v>1.526453439948028</v>
       </c>
       <c r="G6">
-        <v>0.002440869819663127</v>
+        <v>0.0008141193730869644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5434178653449315</v>
+        <v>0.2275181061973157</v>
       </c>
       <c r="J6">
-        <v>0.04813632717105065</v>
+        <v>0.02033082520547147</v>
       </c>
       <c r="K6">
-        <v>0.28946698231303</v>
+        <v>0.8682856600982802</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.466089584156435</v>
+        <v>1.054340465490242</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2924148589156346</v>
+        <v>0.8271870422699692</v>
       </c>
       <c r="C7">
-        <v>0.0419315766987296</v>
+        <v>0.1380456523222477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6316181397814802</v>
+        <v>0.8014118279092486</v>
       </c>
       <c r="F7">
-        <v>2.23957594069185</v>
+        <v>1.572809152791038</v>
       </c>
       <c r="G7">
-        <v>0.00244017132808531</v>
+        <v>0.0008130342107728014</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5406437412863276</v>
+        <v>0.2230623109664336</v>
       </c>
       <c r="J7">
-        <v>0.04792153609687588</v>
+        <v>0.0200906947002224</v>
       </c>
       <c r="K7">
-        <v>0.3027741992252686</v>
+        <v>0.9105310503270232</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.455313696667346</v>
+        <v>1.04272679248092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3459799717795704</v>
+        <v>0.9983734123104568</v>
       </c>
       <c r="C8">
-        <v>0.0503590306428805</v>
+        <v>0.1646494500379703</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6707862297667475</v>
+        <v>0.9620000999841523</v>
       </c>
       <c r="F8">
-        <v>2.269486231788449</v>
+        <v>1.78433862714985</v>
       </c>
       <c r="G8">
-        <v>0.002437246451052265</v>
+        <v>0.0008083920796638275</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5291627370127081</v>
+        <v>0.2049159784449799</v>
       </c>
       <c r="J8">
-        <v>0.04704480615966311</v>
+        <v>0.01917685049304829</v>
       </c>
       <c r="K8">
-        <v>0.3613529858972129</v>
+        <v>1.096966158194306</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.411393411253187</v>
+        <v>0.9988331457528972</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.450658060906477</v>
+        <v>1.334925275520192</v>
       </c>
       <c r="C9">
-        <v>0.06674039478714633</v>
+        <v>0.2169902595289699</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7499932344588132</v>
+        <v>1.285578477958452</v>
       </c>
       <c r="F9">
-        <v>2.339389429036629</v>
+        <v>2.228843691332116</v>
       </c>
       <c r="G9">
-        <v>0.00243207293101233</v>
+        <v>0.0007997889448480085</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5093886683923348</v>
+        <v>0.1752555359265191</v>
       </c>
       <c r="J9">
-        <v>0.04558189953649894</v>
+        <v>0.01796533158132263</v>
       </c>
       <c r="K9">
-        <v>0.475672619920033</v>
+        <v>1.463492998636582</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.338354189223651</v>
+        <v>0.9419155026745329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5273194355882822</v>
+        <v>1.583533059122828</v>
       </c>
       <c r="C10">
-        <v>0.0786851612534889</v>
+        <v>0.2557102050563458</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.809663779002733</v>
+        <v>1.53067320814219</v>
       </c>
       <c r="F10">
-        <v>2.397655674448714</v>
+        <v>2.578351892591996</v>
       </c>
       <c r="G10">
-        <v>0.002428611202677897</v>
+        <v>0.0007937461154558024</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4965365244806375</v>
+        <v>0.1575544709835572</v>
       </c>
       <c r="J10">
-        <v>0.04466413419630832</v>
+        <v>0.01748684994118754</v>
       </c>
       <c r="K10">
-        <v>0.5593017620992669</v>
+        <v>1.734280572269256</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.292704443571367</v>
+        <v>0.9206345547022323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5621366971575981</v>
+        <v>1.697123136300604</v>
       </c>
       <c r="C11">
-        <v>0.08409905619558344</v>
+        <v>0.2734222047165957</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8371338855577193</v>
+        <v>1.644285317040087</v>
       </c>
       <c r="F11">
-        <v>2.425674110578001</v>
+        <v>2.743513038550361</v>
       </c>
       <c r="G11">
-        <v>0.002427109304294464</v>
+        <v>0.0007910509786537166</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4910548003638624</v>
+        <v>0.1505045686977358</v>
       </c>
       <c r="J11">
-        <v>0.04428087916850032</v>
+        <v>0.01737253832096641</v>
       </c>
       <c r="K11">
-        <v>0.5972637468115067</v>
+        <v>1.858023009446271</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.273684117483484</v>
+        <v>0.9160760912963468</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5753124256746105</v>
+        <v>1.740225949182616</v>
       </c>
       <c r="C12">
-        <v>0.08614624445311847</v>
+        <v>0.2801469664435103</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8475830860623006</v>
+        <v>1.687658902579059</v>
       </c>
       <c r="F12">
-        <v>2.436502261312256</v>
+        <v>2.807050486288801</v>
       </c>
       <c r="G12">
-        <v>0.002426550996170618</v>
+        <v>0.0007900375618998573</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4890315784846688</v>
+        <v>0.1479895149640953</v>
       </c>
       <c r="J12">
-        <v>0.04414068838239338</v>
+        <v>0.01734539420610304</v>
       </c>
       <c r="K12">
-        <v>0.6116267031724476</v>
+        <v>1.904981828693764</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.266733305508239</v>
+        <v>0.9151468543127379</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5724751999288173</v>
+        <v>1.73093875154197</v>
       </c>
       <c r="C13">
-        <v>0.08570547774550619</v>
+        <v>0.2786978260230057</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8453305787390235</v>
+        <v>1.678301214592636</v>
       </c>
       <c r="F13">
-        <v>2.434160511679806</v>
+        <v>2.793320509618042</v>
       </c>
       <c r="G13">
-        <v>0.002426670774730604</v>
+        <v>0.0007902555097321466</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4894649745260846</v>
+        <v>0.1485241263250501</v>
       </c>
       <c r="J13">
-        <v>0.04417066103582279</v>
+        <v>0.01735050062683996</v>
       </c>
       <c r="K13">
-        <v>0.6085339476104537</v>
+        <v>1.894863615596677</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.26821907835577</v>
+        <v>0.9153105244910762</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5632208529178797</v>
+        <v>1.700667348766217</v>
       </c>
       <c r="C14">
-        <v>0.08426753892752004</v>
+        <v>0.2739750806856733</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.8379926080669406</v>
+        <v>1.647846366671658</v>
       </c>
       <c r="F14">
-        <v>2.426560572814509</v>
+        <v>2.748719719675648</v>
       </c>
       <c r="G14">
-        <v>0.002427063163147812</v>
+        <v>0.0007909674638336483</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4908872939758275</v>
+        <v>0.150294492769385</v>
       </c>
       <c r="J14">
-        <v>0.04426924650092445</v>
+        <v>0.01736997389506456</v>
       </c>
       <c r="K14">
-        <v>0.5984456490122056</v>
+        <v>1.861884211523517</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.273107220064119</v>
+        <v>0.9159833073273376</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5575511296173659</v>
+        <v>1.682137330107139</v>
       </c>
       <c r="C15">
-        <v>0.08338637503226209</v>
+        <v>0.2710846660432082</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8335039937647508</v>
+        <v>1.629239086515113</v>
       </c>
       <c r="F15">
-        <v>2.421933822805215</v>
+        <v>2.721533323394624</v>
       </c>
       <c r="G15">
-        <v>0.00242730486904743</v>
+        <v>0.0007914044731119519</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4917653581803521</v>
+        <v>0.151399349416085</v>
       </c>
       <c r="J15">
-        <v>0.04433027669200662</v>
+        <v>0.01738404404478899</v>
       </c>
       <c r="K15">
-        <v>0.5922646354088101</v>
+        <v>1.841697044142393</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.276134157147311</v>
+        <v>0.9165010667211533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5250428507364404</v>
+        <v>1.576121124081197</v>
       </c>
       <c r="C16">
-        <v>0.07833094412508501</v>
+        <v>0.2545549504830262</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.807875099341004</v>
+        <v>1.523294882354804</v>
       </c>
       <c r="F16">
-        <v>2.39585509983965</v>
+        <v>2.56769131162261</v>
       </c>
       <c r="G16">
-        <v>0.002428710816982548</v>
+        <v>0.0007939232842514057</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4969021197313008</v>
+        <v>0.1580362446471284</v>
       </c>
       <c r="J16">
-        <v>0.04468987117681777</v>
+        <v>0.01749650727131069</v>
       </c>
       <c r="K16">
-        <v>0.55681915818829</v>
+        <v>1.726206627113896</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.29398266020732</v>
+        <v>0.9210405885076511</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5050851307044582</v>
+        <v>1.511222753887665</v>
       </c>
       <c r="C17">
-        <v>0.07522446014199602</v>
+        <v>0.2444420239569638</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7922360405728455</v>
+        <v>1.458875639640198</v>
       </c>
       <c r="F17">
-        <v>2.380244569510552</v>
+        <v>2.474967494172915</v>
       </c>
       <c r="G17">
-        <v>0.002429591946835595</v>
+        <v>0.0007954818816375726</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5001468802336895</v>
+        <v>0.1623716912906854</v>
       </c>
       <c r="J17">
-        <v>0.04491925188890988</v>
+        <v>0.01759284903428338</v>
       </c>
       <c r="K17">
-        <v>0.535053155634813</v>
+        <v>1.65551389888023</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.305379824856928</v>
+        <v>0.9251788736998634</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4936007129160487</v>
+        <v>1.47394060711693</v>
       </c>
       <c r="C18">
-        <v>0.07343583029779666</v>
+        <v>0.2386343414146239</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7832715195239643</v>
+        <v>1.422019632343677</v>
       </c>
       <c r="F18">
-        <v>2.371408161751958</v>
+        <v>2.422208784464175</v>
       </c>
       <c r="G18">
-        <v>0.002430105610203414</v>
+        <v>0.0007963834433498129</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5020475075570801</v>
+        <v>0.1649590057184263</v>
       </c>
       <c r="J18">
-        <v>0.04505440759087342</v>
+        <v>0.01765790743112206</v>
       </c>
       <c r="K18">
-        <v>0.5225263145787835</v>
+        <v>1.614904723903265</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.312099469537714</v>
+        <v>0.9280373615188182</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4897114036525352</v>
+        <v>1.461324856740646</v>
       </c>
       <c r="C19">
-        <v>0.07282991364552061</v>
+        <v>0.23666940504161</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7802415501940487</v>
+        <v>1.409573176171051</v>
       </c>
       <c r="F19">
-        <v>2.368440736527262</v>
+        <v>2.404440985624774</v>
       </c>
       <c r="G19">
-        <v>0.002430280707629962</v>
+        <v>0.0007966895884508884</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.502696918941508</v>
+        <v>0.1658508100180054</v>
       </c>
       <c r="J19">
-        <v>0.04510072188782388</v>
+        <v>0.01768155434393215</v>
       </c>
       <c r="K19">
-        <v>0.5182836563122635</v>
+        <v>1.601163410925693</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.314402822505514</v>
+        <v>0.9290855742391102</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5072102141095343</v>
+        <v>1.518126448358572</v>
       </c>
       <c r="C20">
-        <v>0.07555534402470698</v>
+        <v>0.2455176058812754</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.793897672472383</v>
+        <v>1.465712544444486</v>
       </c>
       <c r="F20">
-        <v>2.381891599174736</v>
+        <v>2.484777991880222</v>
       </c>
       <c r="G20">
-        <v>0.002429497439387039</v>
+        <v>0.0007953154426481919</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4997979162688004</v>
+        <v>0.1619004068870673</v>
       </c>
       <c r="J20">
-        <v>0.04489450034356324</v>
+        <v>0.0175815861114863</v>
       </c>
       <c r="K20">
-        <v>0.5373709768733193</v>
+        <v>1.663033801834274</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.304149567993136</v>
+        <v>0.9246884263015147</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5659393237394852</v>
+        <v>1.709556241258269</v>
       </c>
       <c r="C21">
-        <v>0.08468997676521894</v>
+        <v>0.2753617579104457</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8401466756648972</v>
+        <v>1.656781768730497</v>
       </c>
       <c r="F21">
-        <v>2.428786932745254</v>
+        <v>2.761792155554701</v>
       </c>
       <c r="G21">
-        <v>0.002426947626660077</v>
+        <v>0.0007907581556527601</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4904680959889447</v>
+        <v>0.1497702104148857</v>
       </c>
       <c r="J21">
-        <v>0.04424015537593462</v>
+        <v>0.01736380524707215</v>
       </c>
       <c r="K21">
-        <v>0.6014091698006894</v>
+        <v>1.871568175462215</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.271664615700942</v>
+        <v>0.9157635605709942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6042704998586146</v>
+        <v>1.835192850917707</v>
       </c>
       <c r="C22">
-        <v>0.09064283432806519</v>
+        <v>0.2949711630476202</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8706462701416058</v>
+        <v>1.78372839072118</v>
       </c>
       <c r="F22">
-        <v>2.460707744587808</v>
+        <v>2.948690966603408</v>
       </c>
       <c r="G22">
-        <v>0.002425341938225488</v>
+        <v>0.0007878212242258117</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4846771045691938</v>
+        <v>0.1427489427376081</v>
       </c>
       <c r="J22">
-        <v>0.04384130209146697</v>
+        <v>0.01731624331412007</v>
       </c>
       <c r="K22">
-        <v>0.6431890832253657</v>
+        <v>2.008452165490041</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.251901672723463</v>
+        <v>0.9146074702363052</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5838173914882248</v>
+        <v>1.768084002905255</v>
       </c>
       <c r="C23">
-        <v>0.08746727909073115</v>
+        <v>0.2844944440743689</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8543430524808713</v>
+        <v>1.715768358390591</v>
       </c>
       <c r="F23">
-        <v>2.443554407720143</v>
+        <v>2.848365716541082</v>
       </c>
       <c r="G23">
-        <v>0.002426193380604887</v>
+        <v>0.0007893851171882178</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4877397690570593</v>
+        <v>0.146409713672071</v>
       </c>
       <c r="J23">
-        <v>0.04405153726657396</v>
+        <v>0.017332504048305</v>
       </c>
       <c r="K23">
-        <v>0.6208972529232142</v>
+        <v>1.935333208043431</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.26231498607649</v>
+        <v>0.9147753419591851</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5062494964266477</v>
+        <v>1.51500519969585</v>
       </c>
       <c r="C24">
-        <v>0.07540575973352759</v>
+        <v>0.245031315701624</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7931463658947706</v>
+        <v>1.462621024234579</v>
       </c>
       <c r="F24">
-        <v>2.381146546326079</v>
+        <v>2.480340962466684</v>
       </c>
       <c r="G24">
-        <v>0.00242954014412735</v>
+        <v>0.0007953906724788296</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4999555733292578</v>
+        <v>0.1621131800393947</v>
       </c>
       <c r="J24">
-        <v>0.04490568029640229</v>
+        <v>0.01758664805376675</v>
       </c>
       <c r="K24">
-        <v>0.5363231311914376</v>
+        <v>1.659633952342375</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.304705246151201</v>
+        <v>0.9249086690635835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4223812540293466</v>
+        <v>1.243706478346809</v>
       </c>
       <c r="C25">
-        <v>0.06232455105326551</v>
+        <v>0.2027965984724744</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7283073284946084</v>
+        <v>1.196910504406915</v>
       </c>
       <c r="F25">
-        <v>2.319269248642087</v>
+        <v>2.104939534280987</v>
       </c>
       <c r="G25">
-        <v>0.002433412680350399</v>
+        <v>0.0008020654627546686</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5144441696974056</v>
+        <v>0.1825977690593827</v>
       </c>
       <c r="J25">
-        <v>0.04595013239689116</v>
+        <v>0.01822523580744395</v>
       </c>
       <c r="K25">
-        <v>0.4448078775396027</v>
+        <v>1.364146369997627</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.356708613029625</v>
+        <v>0.9539184301533368</v>
       </c>
     </row>
   </sheetData>
